--- a/build/temp/pages/StructureDefinition-plannet-PractitionerRole.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-PractitionerRole.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="362">
   <si>
     <t>Path</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>STF-7</t>
@@ -3943,7 +3946,7 @@
         <v>40</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>40</v>
@@ -3997,21 +4000,21 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4037,14 +4040,14 @@
         <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4093,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4108,21 +4111,21 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4145,13 +4148,13 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4202,7 +4205,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4220,7 +4223,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4231,7 +4234,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4254,13 +4257,13 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4311,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4329,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4340,7 +4343,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4366,16 +4369,16 @@
         <v>155</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4422,7 +4425,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4437,13 +4440,13 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4451,7 +4454,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4477,10 +4480,10 @@
         <v>155</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4511,7 +4514,7 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4529,7 +4532,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4544,13 +4547,13 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4558,7 +4561,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4581,13 +4584,13 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4638,7 +4641,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4656,18 +4659,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4690,13 +4693,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4747,7 +4750,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4762,10 +4765,10 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4799,17 +4802,17 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4858,7 +4861,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4876,7 +4879,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4887,7 +4890,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4996,7 +4999,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5107,10 +5110,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
@@ -5132,13 +5135,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5218,10 +5221,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>40</v>
@@ -5243,10 +5246,10 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>105</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5355,10 +5358,10 @@
         <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5388,10 +5391,10 @@
         <v>149</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5409,7 +5412,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5418,19 +5421,19 @@
         <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5438,7 +5441,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5464,16 +5467,16 @@
         <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5522,7 +5525,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5537,10 +5540,10 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>183</v>
@@ -5551,7 +5554,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5577,16 +5580,16 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5614,10 +5617,10 @@
         <v>149</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5635,7 +5638,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5650,13 +5653,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5664,7 +5667,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5687,16 +5690,16 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5746,7 +5749,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5801,10 +5804,10 @@
         <v>185</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5855,7 +5858,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5873,7 +5876,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>191</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5907,16 +5910,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5966,7 +5969,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5984,7 +5987,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5995,7 +5998,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6104,7 +6107,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6215,11 +6218,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6241,10 +6244,10 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>122</v>
@@ -6299,7 +6302,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6328,7 +6331,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6354,10 +6357,10 @@
         <v>70</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6387,10 +6390,10 @@
         <v>149</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6408,7 +6411,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6426,7 +6429,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6437,7 +6440,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6463,10 +6466,10 @@
         <v>202</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6517,7 +6520,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6535,7 +6538,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6546,7 +6549,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6569,16 +6572,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6628,7 +6631,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6646,7 +6649,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6657,7 +6660,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6680,16 +6683,16 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6739,7 +6742,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6757,7 +6760,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6768,7 +6771,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6791,13 +6794,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6848,7 +6851,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6866,7 +6869,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6877,7 +6880,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6986,7 +6989,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7097,11 +7100,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7123,10 +7126,10 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>122</v>
@@ -7181,7 +7184,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7210,7 +7213,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7236,10 +7239,10 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7290,7 +7293,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>50</v>
@@ -7319,7 +7322,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7345,10 +7348,10 @@
         <v>185</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7399,7 +7402,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7417,7 +7420,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7428,7 +7431,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7454,10 +7457,10 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7508,7 +7511,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7526,7 +7529,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7537,7 +7540,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7560,17 +7563,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7619,7 +7622,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
